--- a/data/trans_camb/P43B_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P43B_R-Habitat-trans_camb.xlsx
@@ -572,7 +572,7 @@
         <v>-0.803185182102073</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-2.093408746824399</v>
+        <v>-2.093408746824421</v>
       </c>
     </row>
     <row r="5">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.241309952790747</v>
+        <v>-5.35479309004876</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.15751372019153</v>
+        <v>-6.263618209447803</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.739189477057637</v>
+        <v>4.04484271858685</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.228967179163663</v>
+        <v>2.599606544094252</v>
       </c>
     </row>
     <row r="7">
@@ -614,7 +614,7 @@
         <v>-0.008690199187673452</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.02264999329732398</v>
+        <v>-0.02264999329732422</v>
       </c>
     </row>
     <row r="8">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.05501791031814536</v>
+        <v>-0.05610885231776355</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.06537212411905888</v>
+        <v>-0.06667945835044255</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.04114823697151632</v>
+        <v>0.04424056130139448</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.02467231897436668</v>
+        <v>0.02850923604279255</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         <v>0.7457069912243375</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-2.76228853073156</v>
+        <v>-2.762288530731571</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.289284996877002</v>
+        <v>-3.56040408290177</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.010939969189803</v>
+        <v>-7.085646866695473</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.185053576543036</v>
+        <v>5.222181323128777</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.944837940187215</v>
+        <v>1.378642893618962</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +702,7 @@
         <v>0.008441921789147249</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.03127102737391265</v>
+        <v>-0.03127102737391278</v>
       </c>
     </row>
     <row r="14">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.0362949572274356</v>
+        <v>-0.03895696863382685</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.07766859145500039</v>
+        <v>-0.07908874603423084</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.06017355575694146</v>
+        <v>0.06108521022241564</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.02304099580499647</v>
+        <v>0.01600197545173678</v>
       </c>
     </row>
     <row r="16">
@@ -748,7 +748,7 @@
         <v>9.130976434222337</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-4.479094215380441</v>
+        <v>-4.479094215380453</v>
       </c>
     </row>
     <row r="17">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.625401751963484</v>
+        <v>4.136651755623302</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-10.58607749143797</v>
+        <v>-10.35453819669402</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.18744055062227</v>
+        <v>14.815654002249</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.58107216016684</v>
+        <v>1.873712548695839</v>
       </c>
     </row>
     <row r="19">
@@ -790,7 +790,7 @@
         <v>0.1134935811846595</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.05567295531086467</v>
+        <v>-0.05567295531086481</v>
       </c>
     </row>
     <row r="20">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.04367939683785264</v>
+        <v>0.04945456725526927</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1279878002140107</v>
+        <v>-0.1246685326366807</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.196827962290021</v>
+        <v>0.1955389598900353</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.02029520310351262</v>
+        <v>0.02160881900738805</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +836,7 @@
         <v>-0.1658216833826498</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-6.302792769244325</v>
+        <v>-6.302792769244336</v>
       </c>
     </row>
     <row r="23">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.739113692409087</v>
+        <v>-5.558174741270995</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-10.78458440624868</v>
+        <v>-11.21317248594608</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.665888202968652</v>
+        <v>4.526691937493756</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.229485188341916</v>
+        <v>-1.712328439039207</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
         <v>-0.002006630700320484</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.0762709508824522</v>
+        <v>-0.07627095088245234</v>
       </c>
     </row>
     <row r="26">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.06707659115072101</v>
+        <v>-0.06567880848278186</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1273886255317327</v>
+        <v>-0.1322471930895109</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.05829092173804974</v>
+        <v>0.05664467374062374</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.01552553988978615</v>
+        <v>-0.02345347311050545</v>
       </c>
     </row>
     <row r="28">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.5241390547137289</v>
+        <v>-0.5097035368154221</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.876064420199443</v>
+        <v>-6.743871627245543</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.560695547299728</v>
+        <v>4.515993858739453</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.950539689495624</v>
+        <v>-1.727041814972603</v>
       </c>
     </row>
     <row r="31">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.006072045636310137</v>
+        <v>-0.005821337372249446</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.07878146685247593</v>
+        <v>-0.07703264858733661</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.05400659777376259</v>
+        <v>0.05390745161271301</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.02207457419550031</v>
+        <v>-0.02050263967727257</v>
       </c>
     </row>
     <row r="34">
